--- a/medicine/Enfance/Robert_Munsch/Robert_Munsch.xlsx
+++ b/medicine/Enfance/Robert_Munsch/Robert_Munsch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Norman Munsch, CM, né le 11 juin 1945, est un auteur américano-canadien de littérature pour la jeunesse. 
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie et carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Munsch est né à Pittsburgh, en Pennsylvanie. Il est diplômé de l'Université de Fordham en 1969 avec un Baccalauréat ès Arts  en histoire et de l'Université de Boston en 1971 avec une Maîtrise ès Arts en anthropologie.
-En 2022 et 2023, il est sélectionné pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[1].
+En 2022 et 2023, il est sélectionné pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,12 +585,14 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix Juno de l'album jeunesse, 1985
 Une étoile à son nom sur l'Allée des célébrités canadiennes en 2009
 Membre de l'Ordre du Canada 1999
-2022 et 2023 :  Sélection pour le Prix commémoratif Astrid-Lindgren[1]</t>
+2022 et 2023 :  Sélection pour le Prix commémoratif Astrid-Lindgren</t>
         </is>
       </c>
     </row>
@@ -603,6 +621,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -629,6 +649,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
